--- a/Volleyball_final.xlsx
+++ b/Volleyball_final.xlsx
@@ -382,12 +382,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -399,12 +399,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_boys</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -416,12 +416,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -433,12 +433,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -450,12 +450,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -467,12 +467,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -484,12 +484,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -569,12 +569,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_boys</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_boys</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -943,12 +943,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -977,12 +977,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1215,12 +1215,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1232,12 +1232,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1249,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1402,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_boys</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1640,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1657,12 +1657,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1742,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1793,12 +1793,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1895,12 +1895,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1929,12 +1929,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1963,12 +1963,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -1997,12 +1997,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2014,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2031,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2082,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2133,12 +2133,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_boys</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Volleyball-Boys</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2320,12 +2320,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2354,12 +2354,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_coed</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>uil-sports</t>
+          <t>sports_uil_girls</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Volleyball-Girls</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Volleyball-Coed</t>
+          <t>Volleyball</t>
         </is>
       </c>
     </row>
